--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1217.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1217.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9008505329769233</v>
+        <v>1.190564513206482</v>
       </c>
       <c r="B1">
-        <v>3.297765501340499</v>
+        <v>2.239068984985352</v>
       </c>
       <c r="C1">
-        <v>3.379740407953883</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.116147714930851</v>
+        <v>2.28122878074646</v>
       </c>
       <c r="E1">
-        <v>1.27693300625811</v>
+        <v>1.215537786483765</v>
       </c>
     </row>
   </sheetData>
